--- a/tests/unit/apps/payment/test_file/pp_payment_list_reconciliation.xlsx
+++ b/tests/unit/apps/payment/test_file/pp_payment_list_reconciliation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>payment_id</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>RCPT-4410-25-2.222</t>
   </si>
   <si>
     <t>HH-20-0000.0002</t>
@@ -1629,7 +1632,7 @@
         <v>3637</v>
       </c>
       <c r="M2" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s" s="6">
         <v>23</v>
@@ -1638,32 +1641,32 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7">
         <v>4</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="8">
         <v>11.11</v>
@@ -1672,13 +1675,13 @@
         <v>3589</v>
       </c>
       <c r="M3" s="9">
-        <v>50</v>
+        <v>11.11</v>
       </c>
       <c r="N3" t="s" s="6">
         <v>23</v>
       </c>
       <c r="O3" t="s" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
